--- a/Kịch bản kiểm thử và Test Case.xlsx
+++ b/Kịch bản kiểm thử và Test Case.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maiva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\JAVA\Core Java\Volume1\CoreJava_2\Nhom6_KiemThuPhanMem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD57366-E024-4DC6-8369-7377C2A61760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2B4663B0-FF1F-4266-833F-DDEEB88B4180}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Website kiểm thử: https://nemshop.vn/</t>
   </si>
@@ -343,12 +342,16 @@
 - Tải lại trang.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">1. Trang web ở trạng thái đăng nhập.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +463,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,21 +494,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +514,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -625,7 +628,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4487-4579-AF21-81AF08233768}"/>
             </c:ext>
@@ -641,11 +644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="912011839"/>
-        <c:axId val="912013759"/>
+        <c:axId val="1083683776"/>
+        <c:axId val="1083696288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="912011839"/>
+        <c:axId val="1083683776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912013759"/>
+        <c:crossAx val="1083696288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="912013759"/>
+        <c:axId val="1083696288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="912011839"/>
+        <c:crossAx val="1083683776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -761,14 +764,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1342,7 +1345,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F36D49C4-B148-4CDF-A883-38100C18D492}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0" zoomToFit="1"/>
@@ -1362,7 +1365,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EED535F-26F5-8F5C-6516-B76C11B5AB48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EED535F-26F5-8F5C-6516-B76C11B5AB48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,45 +1704,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFC6A97-61A5-4F20-B94C-7FC9F864D210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="36" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="42.6" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1759,538 +1762,504 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.2" customHeight="1">
+      <c r="A11" s="13">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row r="12" spans="1:6" ht="23.4" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.8" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="33.6" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9">
         <v>3</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="25.8" customHeight="1">
+      <c r="A21" s="9">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11" t="s">
+    <row r="22" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="23.4" customHeight="1">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="35.4" customHeight="1">
+      <c r="A26" s="9">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <v>5</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="27" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="51" customHeight="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="44.4" customHeight="1">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9">
+        <v>6</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
-        <v>6</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="12" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="9">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>7</v>
-      </c>
-      <c r="B39" s="12" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="9">
+        <v>8</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="C47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>8</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:6" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="11"/>
+    <row r="48" spans="1:6">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="9"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="9"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="9"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" ht="9.6" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="F39:F46"/>
@@ -2307,6 +2276,40 @@
     <mergeCell ref="E39:E46"/>
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="F4:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kịch bản kiểm thử và Test Case.xlsx
+++ b/Kịch bản kiểm thử và Test Case.xlsx
@@ -75,10 +75,6 @@
     <t>Kiểm tra việc xóa cookie khỏi trang ứng dụng web</t>
   </si>
   <si>
-    <t>1. Trang web ở trạng thái đã đăng nhập.
-2. Tải lại trang không bị mất trạng thái.</t>
-  </si>
-  <si>
     <t>Kiểm tra ứng dụng sau khi xóa cokkie (session) bằng cách xóa bộ nhớ Cache</t>
   </si>
   <si>
@@ -344,6 +340,10 @@
   </si>
   <si>
     <t xml:space="preserve">1. Trang web ở trạng thái đăng nhập.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trang web ở trạng thái không đăng nhập.
 </t>
   </si>
 </sst>
@@ -1707,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.8"/>
@@ -1767,16 +1767,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
@@ -1835,16 +1835,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>8</v>
@@ -1879,16 +1879,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>8</v>
@@ -1939,13 +1939,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>9</v>
@@ -1991,13 +1991,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>10</v>
@@ -2051,16 +2051,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>8</v>
@@ -2119,16 +2119,16 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>8</v>
@@ -2195,16 +2195,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>8</v>
